--- a/TCC EXCEL FILES/TCC 2021.xlsx
+++ b/TCC EXCEL FILES/TCC 2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NodeJS WebApps\JSONFILEUPLOAD\TCC EXCEL FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA89316-9059-43A2-8781-0E5E142EDA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B992215-89ED-432E-8AF0-2C2CB913CC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="341">
   <si>
     <t>Judges Names</t>
   </si>
@@ -1040,6 +1040,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Winning</t>
+  </si>
+  <si>
+    <t>Issue</t>
   </si>
 </sst>
 </file>
@@ -1416,15 +1419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1462,10 +1465,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1502,11 +1508,14 @@
       <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1543,11 +1552,14 @@
       <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1584,11 +1596,14 @@
       <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1625,11 +1640,14 @@
       <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1666,11 +1684,14 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1707,11 +1728,14 @@
       <c r="L7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1748,11 +1772,14 @@
       <c r="L8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1789,11 +1816,14 @@
       <c r="L9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1830,11 +1860,14 @@
       <c r="L10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1871,11 +1904,14 @@
       <c r="L11" t="s">
         <v>22</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1912,11 +1948,14 @@
       <c r="L12" t="s">
         <v>22</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -1953,11 +1992,14 @@
       <c r="L13" t="s">
         <v>22</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -1994,11 +2036,14 @@
       <c r="L14" t="s">
         <v>22</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2035,11 +2080,14 @@
       <c r="L15" t="s">
         <v>22</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -2076,11 +2124,14 @@
       <c r="L16" t="s">
         <v>23</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2117,11 +2168,14 @@
       <c r="L17" t="s">
         <v>22</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -2158,11 +2212,14 @@
       <c r="L18" t="s">
         <v>22</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -2199,11 +2256,14 @@
       <c r="L19" t="s">
         <v>22</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2240,11 +2300,14 @@
       <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2281,11 +2344,14 @@
       <c r="L21" t="s">
         <v>22</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -2322,11 +2388,14 @@
       <c r="L22" t="s">
         <v>22</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -2363,11 +2432,14 @@
       <c r="L23" t="s">
         <v>22</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -2404,11 +2476,14 @@
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2445,11 +2520,14 @@
       <c r="L25" t="s">
         <v>22</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -2486,11 +2564,14 @@
       <c r="L26" t="s">
         <v>22</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -2527,11 +2608,14 @@
       <c r="L27" t="s">
         <v>22</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>154</v>
       </c>
@@ -2568,11 +2652,14 @@
       <c r="L28" t="s">
         <v>22</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -2609,11 +2696,14 @@
       <c r="L29" t="s">
         <v>22</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2650,11 +2740,14 @@
       <c r="L30" t="s">
         <v>22</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>168</v>
       </c>
@@ -2691,11 +2784,14 @@
       <c r="L31" t="s">
         <v>23</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -2732,11 +2828,14 @@
       <c r="L32" t="s">
         <v>22</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>179</v>
       </c>
@@ -2773,11 +2872,14 @@
       <c r="L33" t="s">
         <v>23</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2814,11 +2916,14 @@
       <c r="L34" t="s">
         <v>22</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2855,11 +2960,14 @@
       <c r="L35" t="s">
         <v>23</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2896,11 +3004,14 @@
       <c r="L36" t="s">
         <v>22</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -2937,11 +3048,14 @@
       <c r="L37" t="s">
         <v>22</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -2978,11 +3092,14 @@
       <c r="L38" t="s">
         <v>22</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -3019,11 +3136,14 @@
       <c r="L39" t="s">
         <v>22</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -3060,11 +3180,14 @@
       <c r="L40" t="s">
         <v>22</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -3101,11 +3224,14 @@
       <c r="L41" t="s">
         <v>22</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>209</v>
       </c>
@@ -3142,11 +3268,14 @@
       <c r="L42" t="s">
         <v>22</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>215</v>
       </c>
@@ -3183,11 +3312,14 @@
       <c r="L43" t="s">
         <v>23</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -3224,11 +3356,14 @@
       <c r="L44" t="s">
         <v>22</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>226</v>
       </c>
@@ -3265,11 +3400,14 @@
       <c r="L45" t="s">
         <v>22</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>209</v>
       </c>
@@ -3306,11 +3444,14 @@
       <c r="L46" t="s">
         <v>235</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>237</v>
       </c>
@@ -3347,11 +3488,14 @@
       <c r="L47" t="s">
         <v>22</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -3388,11 +3532,14 @@
       <c r="L48" t="s">
         <v>23</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -3429,11 +3576,14 @@
       <c r="L49" t="s">
         <v>22</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>249</v>
       </c>
@@ -3470,11 +3620,14 @@
       <c r="L50" t="s">
         <v>22</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -3511,11 +3664,14 @@
       <c r="L51" t="s">
         <v>22</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>256</v>
       </c>
@@ -3552,11 +3708,14 @@
       <c r="L52" t="s">
         <v>22</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>262</v>
       </c>
@@ -3593,11 +3752,14 @@
       <c r="L53" t="s">
         <v>22</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>209</v>
       </c>
@@ -3634,11 +3796,14 @@
       <c r="L54" t="s">
         <v>22</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>271</v>
       </c>
@@ -3675,11 +3840,14 @@
       <c r="L55" t="s">
         <v>23</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -3716,11 +3884,14 @@
       <c r="L56" t="s">
         <v>23</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -3757,11 +3928,14 @@
       <c r="L57" t="s">
         <v>22</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -3798,11 +3972,14 @@
       <c r="L58" t="s">
         <v>23</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -3839,11 +4016,14 @@
       <c r="L59" t="s">
         <v>22</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -3880,11 +4060,14 @@
       <c r="L60" t="s">
         <v>22</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>206</v>
       </c>
@@ -3921,11 +4104,14 @@
       <c r="L61" t="s">
         <v>22</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -3962,11 +4148,14 @@
       <c r="L62" t="s">
         <v>22</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>271</v>
       </c>
@@ -4003,11 +4192,14 @@
       <c r="L63" t="s">
         <v>23</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>154</v>
       </c>
@@ -4044,11 +4236,14 @@
       <c r="L64" t="s">
         <v>22</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>149</v>
       </c>
@@ -4085,11 +4280,14 @@
       <c r="L65" t="s">
         <v>22</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -4126,11 +4324,14 @@
       <c r="L66" t="s">
         <v>22</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -4167,11 +4368,14 @@
       <c r="L67" t="s">
         <v>22</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>314</v>
       </c>
@@ -4208,11 +4412,14 @@
       <c r="L68" t="s">
         <v>23</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -4249,11 +4456,14 @@
       <c r="L69" t="s">
         <v>22</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>323</v>
       </c>
@@ -4290,11 +4500,14 @@
       <c r="L70" t="s">
         <v>22</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -4331,11 +4544,14 @@
       <c r="L71" t="s">
         <v>22</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -4372,11 +4588,14 @@
       <c r="L72" t="s">
         <v>22</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -4413,11 +4632,14 @@
       <c r="L73" t="s">
         <v>23</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -4454,15 +4676,17 @@
       <c r="L74" t="s">
         <v>22</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M73 A74:C74 E74:M74" numberStoredAsText="1"/>
+    <ignoredError sqref="A74:C74 N1:N74 E74:L74 A1:L73" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>